--- a/dataSet/mac_os_server_PMGTV.xlsx
+++ b/dataSet/mac_os_server_PMGTV.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53956886-6D49-44A2-9059-E2A4E5F99BFD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB8F989-B28F-4CBC-A850-59300F4B1CB9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,244 +404,244 @@
   <sheetData>
     <row r="1" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A1">
-        <v>24.194317383400001</v>
+        <v>0.37664149653385998</v>
       </c>
       <c r="B1">
-        <v>26.8200268875723</v>
+        <v>1.04295323014713</v>
       </c>
       <c r="C1">
-        <v>29.707424935982299</v>
+        <v>2.3694756371096202</v>
       </c>
       <c r="D1">
-        <v>32.877379132269198</v>
+        <v>4.6052013929508302</v>
       </c>
       <c r="E1">
-        <v>36.351267730806697</v>
+        <v>7.9141532464640596</v>
       </c>
       <c r="F1">
-        <v>40.150714100912097</v>
+        <v>12.343860480465199</v>
       </c>
       <c r="G1">
-        <v>44.297254646193402</v>
+        <v>17.837194053984</v>
       </c>
       <c r="H1">
-        <v>48.811935082382703</v>
+        <v>24.2701999136717</v>
       </c>
       <c r="I1">
-        <v>53.714832129738902</v>
+        <v>31.4943110342845</v>
       </c>
       <c r="J1">
-        <v>59.024500768224598</v>
+        <v>39.369009466176102</v>
       </c>
       <c r="K1">
-        <v>64.757351322591703</v>
+        <v>47.780528195829099</v>
       </c>
       <c r="L1">
-        <v>70.926965801067297</v>
+        <v>56.6483152812201</v>
       </c>
       <c r="M1">
-        <v>77.543369003121398</v>
+        <v>65.923246431944193</v>
       </c>
       <c r="N1">
-        <v>84.612276686916601</v>
+        <v>75.5814266644946</v>
       </c>
       <c r="O1">
-        <v>92.134350115718604</v>
+        <v>85.616345914436593</v>
       </c>
       <c r="P1">
-        <v>100.104492966305</v>
+        <v>96.031025501711298</v>
       </c>
       <c r="Q1">
-        <v>108.511232091704</v>
+        <v>106.83095584242</v>
       </c>
       <c r="R1">
-        <v>117.33622708054401</v>
+        <v>118.018123932206</v>
       </c>
       <c r="S1">
-        <v>126.553954024801</v>
+        <v>129.58618736050099</v>
       </c>
       <c r="T1">
-        <v>136.13160559813801</v>
+        <v>141.516774494906</v>
       </c>
       <c r="U1">
-        <v>146.02924194646701</v>
+        <v>153.77689829940499</v>
       </c>
       <c r="V1">
-        <v>156.20021493732699</v>
+        <v>166.317507028649</v>
       </c>
       <c r="W1">
-        <v>166.591872513238</v>
+        <v>179.073221154001</v>
       </c>
       <c r="X1">
-        <v>177.146531371473</v>
+        <v>191.96329972871101</v>
       </c>
       <c r="Y1">
-        <v>187.80268662776399</v>
+        <v>204.893831088604</v>
       </c>
       <c r="Z1">
-        <v>198.49640856562499</v>
+        <v>217.761054575673</v>
       </c>
       <c r="AA1">
-        <v>209.16286116776001</v>
+        <v>230.45560588931301</v>
       </c>
       <c r="AB1">
-        <v>219.73786676603399</v>
+        <v>242.86736231739599</v>
       </c>
       <c r="AC1">
-        <v>230.159437157984</v>
+        <v>254.89047360985001</v>
       </c>
       <c r="AD1">
-        <v>240.369194441465</v>
+        <v>266.42812484017003</v>
       </c>
       <c r="AE1">
-        <v>250.313614235107</v>
+        <v>277.396603802801</v>
       </c>
       <c r="AF1">
-        <v>259.94503867033598</v>
+        <v>287.728336123963</v>
       </c>
       <c r="AG1">
-        <v>269.22242473608901</v>
+        <v>297.37368924442899</v>
       </c>
       <c r="AH1">
-        <v>278.11181310510398</v>
+        <v>306.30150390039501</v>
       </c>
       <c r="AI1">
-        <v>286.586521383942</v>
+        <v>314.49845838197098</v>
       </c>
       <c r="AJ1">
-        <v>294.62708205432602</v>
+        <v>321.96748228847099</v>
       </c>
       <c r="AK1">
-        <v>302.22095799045002</v>
+        <v>328.72549960201798</v>
       </c>
       <c r="AL1">
-        <v>309.36207673975201</v>
+        <v>334.800794907122</v>
       </c>
       <c r="AM1">
-        <v>316.050228722643</v>
+        <v>340.23027047163799</v>
       </c>
       <c r="AN1">
-        <v>322.290374590493</v>
+        <v>345.05680982366403</v>
       </c>
       <c r="AO1">
-        <v>328.09190394524802</v>
+        <v>349.32690017320903</v>
       </c>
       <c r="AP1">
-        <v>333.46788238008497</v>
+        <v>353.08860367123702</v>
       </c>
       <c r="AQ1">
-        <v>338.43431726381198</v>
+        <v>356.38991407645301</v>
       </c>
       <c r="AR1">
-        <v>343.00946567489598</v>
+        <v>359.27749476287499</v>
       </c>
       <c r="AS1">
-        <v>347.21320104193398</v>
+        <v>361.79576671496199</v>
       </c>
       <c r="AT1">
-        <v>351.06644882565399</v>
+        <v>363.98629968649902</v>
       </c>
       <c r="AU1">
-        <v>354.59069626185402</v>
+        <v>365.88745350072099</v>
       </c>
       <c r="AV1">
-        <v>357.80757689888901</v>
+        <v>367.53421679839602</v>
       </c>
       <c r="AW1">
-        <v>360.73852741203802</v>
+        <v>368.95819494215698</v>
       </c>
       <c r="AX1">
-        <v>363.404511882934</v>
+        <v>370.18770531419102</v>
       </c>
       <c r="AY1">
-        <v>365.82580726850398</v>
+        <v>371.24794550644799</v>
       </c>
       <c r="AZ1">
-        <v>368.02184300246103</v>
+        <v>372.16120699401199</v>
       </c>
       <c r="BA1">
-        <v>370.01108742231497</v>
+        <v>372.94711328581002</v>
       </c>
       <c r="BB1">
-        <v>371.810973856629</v>
+        <v>373.622867022869</v>
       </c>
       <c r="BC1">
-        <v>373.43785961886101</v>
+        <v>374.20349498606703</v>
       </c>
       <c r="BD1">
-        <v>374.90701173553498</v>
+        <v>374.70208353536498</v>
       </c>
       <c r="BE1">
-        <v>376.23261390850399</v>
+        <v>375.12999973955402</v>
       </c>
       <c r="BF1">
-        <v>377.42778991468498</v>
+        <v>375.49709549997698</v>
       </c>
       <c r="BG1">
-        <v>378.50463933964397</v>
+        <v>375.81189345424002</v>
       </c>
       <c r="BH1">
-        <v>379.47428219566399</v>
+        <v>376.08175448586297</v>
       </c>
       <c r="BI1">
-        <v>380.346909573358</v>
+        <v>376.31302736604999</v>
       </c>
       <c r="BJ1">
-        <v>381.13183800967602</v>
+        <v>376.51118149941198</v>
       </c>
       <c r="BK1">
-        <v>381.837565721543</v>
+        <v>376.68092400472301</v>
       </c>
       <c r="BL1">
-        <v>382.47182925463699</v>
+        <v>376.82630248789098</v>
       </c>
       <c r="BM1">
-        <v>383.04165943502699</v>
+        <v>376.95079489814702</v>
       </c>
       <c r="BN1">
-        <v>383.55343579300597</v>
+        <v>377.05738783044802</v>
       </c>
       <c r="BO1">
-        <v>384.01293885977799</v>
+        <v>377.14864456977898</v>
       </c>
       <c r="BP1">
-        <v>384.42539992509302</v>
+        <v>377.22676408263402</v>
       </c>
       <c r="BQ1">
-        <v>384.79554799373301</v>
+        <v>377.29363205888001</v>
       </c>
       <c r="BR1">
-        <v>385.12765379670901</v>
+        <v>377.35086500134298</v>
       </c>
       <c r="BS1">
-        <v>385.42557080440997</v>
+        <v>377.39984825601999</v>
       </c>
       <c r="BT1">
-        <v>385.69277325836401</v>
+        <v>377.44176877617099</v>
       </c>
       <c r="BU1">
-        <v>385.93239128981702</v>
+        <v>377.47764332060802</v>
       </c>
       <c r="BV1">
-        <v>386.14724323034898</v>
+        <v>377.50834270131099</v>
       </c>
       <c r="BW1">
-        <v>386.339865245326</v>
+        <v>377.53461261842</v>
       </c>
       <c r="BX1">
-        <v>386.512538437324</v>
+        <v>377.55709155158399</v>
       </c>
       <c r="BY1">
-        <v>386.667313576043</v>
+        <v>377.57632611528697</v>
       </c>
       <c r="BZ1">
-        <v>386.806033615052</v>
+        <v>377.59278423156297</v>
       </c>
       <c r="CA1">
-        <v>386.93035415551799</v>
+        <v>377.60686642591202</v>
       </c>
       <c r="CB1">
-        <v>387.04176201377499</v>
+        <v>377.61891551056698</v>
       </c>
     </row>
   </sheetData>
